--- a/src/docs/Caratula.xlsx
+++ b/src/docs/Caratula.xlsx
@@ -97,7 +97,7 @@
     <t>: CLP</t>
   </si>
   <si>
-    <t>Este es el nuevo texto para J31 desde la API.</t>
+    <t>xcxcxcxcxc</t>
   </si>
   <si>
     <t>AUMENTO Y DISMINUCIONES DEL CONTRATO</t>
